--- a/VIDA2/data/GOIANIA.xlsx
+++ b/VIDA2/data/GOIANIA.xlsx
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5.608080808080808</v>
+        <v>5.584630838774485</v>
       </c>
       <c r="D2" t="n">
-        <v>129.9793472520744</v>
+        <v>131.3578156872982</v>
       </c>
       <c r="E2" t="n">
-        <v>49.02111356656809</v>
+        <v>43.12594111062221</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23.29</v>
+        <v>23.2135</v>
       </c>
       <c r="D3" t="n">
-        <v>120.7537190127716</v>
+        <v>129.5460556382769</v>
       </c>
       <c r="E3" t="n">
-        <v>39.15633739257617</v>
+        <v>47.80141986442006</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23.122</v>
+        <v>23.1355</v>
       </c>
       <c r="D4" t="n">
-        <v>138.875734885874</v>
+        <v>140.7093984170376</v>
       </c>
       <c r="E4" t="n">
-        <v>49.24453658634209</v>
+        <v>50.38329152688475</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22.934</v>
+        <v>23.0355</v>
       </c>
       <c r="D5" t="n">
-        <v>129.3534330239313</v>
+        <v>133.258813518142</v>
       </c>
       <c r="E5" t="n">
-        <v>50.37724169731848</v>
+        <v>48.94216399442266</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>28.87</v>
+        <v>28.9085</v>
       </c>
       <c r="D6" t="n">
-        <v>121.0456322378194</v>
+        <v>119.3585016551369</v>
       </c>
       <c r="E6" t="n">
-        <v>41.60728797535644</v>
+        <v>42.83969565848211</v>
       </c>
     </row>
     <row r="7">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24.716</v>
+        <v>25.015</v>
       </c>
       <c r="D7" t="n">
-        <v>126.5085319060419</v>
+        <v>128.9684274608263</v>
       </c>
       <c r="E7" t="n">
-        <v>44.34144875890004</v>
+        <v>45.73610133730427</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32.064</v>
+        <v>31.8375</v>
       </c>
       <c r="D8" t="n">
-        <v>129.3431629289275</v>
+        <v>125.965265191938</v>
       </c>
       <c r="E8" t="n">
-        <v>47.26523221868357</v>
+        <v>45.53529731923876</v>
       </c>
     </row>
     <row r="9">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>33.562</v>
+        <v>33.5005</v>
       </c>
       <c r="D9" t="n">
-        <v>124.1271541399896</v>
+        <v>125.4654268070342</v>
       </c>
       <c r="E9" t="n">
-        <v>44.50812140225839</v>
+        <v>44.25026224102891</v>
       </c>
     </row>
     <row r="10">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>27.536</v>
+        <v>27.468</v>
       </c>
       <c r="D10" t="n">
-        <v>128.8928673733541</v>
+        <v>129.7000057485862</v>
       </c>
       <c r="E10" t="n">
-        <v>45.97323569992491</v>
+        <v>45.82911513490509</v>
       </c>
     </row>
     <row r="11">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23.982</v>
+        <v>23.881</v>
       </c>
       <c r="D11" t="n">
-        <v>128.1231065992009</v>
+        <v>129.4598227807475</v>
       </c>
       <c r="E11" t="n">
-        <v>46.10403713547432</v>
+        <v>47.22080959730141</v>
       </c>
     </row>
     <row r="12">
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>24.684</v>
+        <v>24.9455</v>
       </c>
       <c r="D12" t="n">
-        <v>124.2067847661897</v>
+        <v>122.1123069622959</v>
       </c>
       <c r="E12" t="n">
-        <v>46.08554811020161</v>
+        <v>43.8109600724699</v>
       </c>
     </row>
     <row r="13">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>32.68</v>
+        <v>32.6495</v>
       </c>
       <c r="D13" t="n">
-        <v>125.8898340488487</v>
+        <v>130.0812641273746</v>
       </c>
       <c r="E13" t="n">
-        <v>45.50462480238198</v>
+        <v>47.91924128930717</v>
       </c>
     </row>
     <row r="14">
@@ -693,13 +693,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>41.376</v>
+        <v>41.293</v>
       </c>
       <c r="D14" t="n">
-        <v>130.6974771828858</v>
+        <v>128.8939021846912</v>
       </c>
       <c r="E14" t="n">
-        <v>47.66720097104027</v>
+        <v>45.6535165923618</v>
       </c>
     </row>
     <row r="15">
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>25.498</v>
+        <v>25.477</v>
       </c>
       <c r="D15" t="n">
-        <v>124.3892720238981</v>
+        <v>127.6752441352367</v>
       </c>
       <c r="E15" t="n">
-        <v>44.86113466052752</v>
+        <v>45.73425689059237</v>
       </c>
     </row>
     <row r="16">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>33.748</v>
+        <v>33.439</v>
       </c>
       <c r="D16" t="n">
-        <v>128.7459845051044</v>
+        <v>126.577620028177</v>
       </c>
       <c r="E16" t="n">
-        <v>45.10074193556049</v>
+        <v>46.42429846183467</v>
       </c>
     </row>
     <row r="17">
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>37.314</v>
+        <v>37.113</v>
       </c>
       <c r="D17" t="n">
-        <v>132.5248346521531</v>
+        <v>128.4999009270715</v>
       </c>
       <c r="E17" t="n">
-        <v>45.799889852985</v>
+        <v>46.2699290496644</v>
       </c>
     </row>
     <row r="18">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>20.166</v>
+        <v>20.198</v>
       </c>
       <c r="D18" t="n">
-        <v>132.8840446564966</v>
+        <v>128.3462674948107</v>
       </c>
       <c r="E18" t="n">
-        <v>50.77765449943307</v>
+        <v>44.49606657183224</v>
       </c>
     </row>
     <row r="19">
@@ -788,13 +788,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20.348</v>
+        <v>20.34</v>
       </c>
       <c r="D19" t="n">
-        <v>126.7588557668247</v>
+        <v>125.2471507709041</v>
       </c>
       <c r="E19" t="n">
-        <v>46.41572835228421</v>
+        <v>44.87749714409679</v>
       </c>
     </row>
     <row r="20">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>21.416</v>
+        <v>21.4395</v>
       </c>
       <c r="D20" t="n">
-        <v>124.1315210139029</v>
+        <v>126.7693848669607</v>
       </c>
       <c r="E20" t="n">
-        <v>46.74602377253594</v>
+        <v>45.53625999249493</v>
       </c>
     </row>
     <row r="21">
@@ -826,13 +826,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30.062</v>
+        <v>30.207</v>
       </c>
       <c r="D21" t="n">
-        <v>119.6018755766055</v>
+        <v>121.1707583704662</v>
       </c>
       <c r="E21" t="n">
-        <v>44.35244431447045</v>
+        <v>43.13347581374391</v>
       </c>
     </row>
     <row r="22">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>25.922</v>
+        <v>26.0685</v>
       </c>
       <c r="D22" t="n">
-        <v>128.9199291031798</v>
+        <v>124.8265196283193</v>
       </c>
       <c r="E22" t="n">
-        <v>47.58790267039466</v>
+        <v>46.32908882436583</v>
       </c>
     </row>
     <row r="23">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.27</v>
+        <v>23.0555</v>
       </c>
       <c r="D23" t="n">
-        <v>125.3150335693434</v>
+        <v>126.2084203025286</v>
       </c>
       <c r="E23" t="n">
-        <v>46.59065245454828</v>
+        <v>44.08012211509088</v>
       </c>
     </row>
     <row r="24">
@@ -883,13 +883,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>24.606</v>
+        <v>25.5415</v>
       </c>
       <c r="D24" t="n">
-        <v>124.2971330073093</v>
+        <v>126.0189364906488</v>
       </c>
       <c r="E24" t="n">
-        <v>43.26480703021214</v>
+        <v>44.35367485311392</v>
       </c>
     </row>
     <row r="25">
@@ -902,13 +902,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23.728</v>
+        <v>23.5685</v>
       </c>
       <c r="D25" t="n">
-        <v>131.060954682267</v>
+        <v>130.1603079284095</v>
       </c>
       <c r="E25" t="n">
-        <v>44.81979488995628</v>
+        <v>46.34396750029899</v>
       </c>
     </row>
     <row r="26">
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24.566</v>
+        <v>24.5045</v>
       </c>
       <c r="D26" t="n">
-        <v>132.8082981692816</v>
+        <v>130.4250148656364</v>
       </c>
       <c r="E26" t="n">
-        <v>49.05350720625457</v>
+        <v>45.62789275158304</v>
       </c>
     </row>
     <row r="27">
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>21.962</v>
+        <v>22.1565</v>
       </c>
       <c r="D27" t="n">
-        <v>135.5573456217692</v>
+        <v>127.0637645236179</v>
       </c>
       <c r="E27" t="n">
-        <v>47.5195755452432</v>
+        <v>45.34342873789926</v>
       </c>
     </row>
     <row r="28">
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>22.902</v>
+        <v>22.4655</v>
       </c>
       <c r="D28" t="n">
-        <v>124.7408351636086</v>
+        <v>128.6713869783834</v>
       </c>
       <c r="E28" t="n">
-        <v>41.15306896591321</v>
+        <v>47.22089871680546</v>
       </c>
     </row>
     <row r="29">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>23.716</v>
+        <v>23.871</v>
       </c>
       <c r="D29" t="n">
-        <v>138.2730076153598</v>
+        <v>135.0479428996812</v>
       </c>
       <c r="E29" t="n">
-        <v>50.45281522098677</v>
+        <v>49.77809766495371</v>
       </c>
     </row>
     <row r="30">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24.504</v>
+        <v>24.691</v>
       </c>
       <c r="D30" t="n">
-        <v>134.8629789465279</v>
+        <v>133.9754336531187</v>
       </c>
       <c r="E30" t="n">
-        <v>46.32982844747094</v>
+        <v>47.57165150206286</v>
       </c>
     </row>
     <row r="31">
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>23.108</v>
+        <v>23.6345</v>
       </c>
       <c r="D31" t="n">
-        <v>130.1513673644067</v>
+        <v>127.538945044552</v>
       </c>
       <c r="E31" t="n">
-        <v>47.48912426281097</v>
+        <v>45.43597026727354</v>
       </c>
     </row>
     <row r="32">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>30.542</v>
+        <v>30.249</v>
       </c>
       <c r="D32" t="n">
-        <v>126.4275828814985</v>
+        <v>130.6014411190115</v>
       </c>
       <c r="E32" t="n">
-        <v>47.05731699351543</v>
+        <v>45.852175966338</v>
       </c>
     </row>
     <row r="33">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>28.768</v>
+        <v>28.987</v>
       </c>
       <c r="D33" t="n">
-        <v>135.8226451862623</v>
+        <v>126.9228682327634</v>
       </c>
       <c r="E33" t="n">
-        <v>48.42924341923412</v>
+        <v>45.92121307235661</v>
       </c>
     </row>
     <row r="34">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>24.79</v>
+        <v>24.7145</v>
       </c>
       <c r="D34" t="n">
-        <v>129.1844627168992</v>
+        <v>126.4605208154582</v>
       </c>
       <c r="E34" t="n">
-        <v>44.65015936239715</v>
+        <v>44.36385227608042</v>
       </c>
     </row>
     <row r="35">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>24.726</v>
+        <v>24.7655</v>
       </c>
       <c r="D35" t="n">
-        <v>126.1394358936591</v>
+        <v>121.5591878554441</v>
       </c>
       <c r="E35" t="n">
-        <v>43.95345727049003</v>
+        <v>43.80060110126026</v>
       </c>
     </row>
     <row r="36">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>24.324</v>
+        <v>24.3125</v>
       </c>
       <c r="D36" t="n">
-        <v>125.2307143627018</v>
+        <v>126.8326955754826</v>
       </c>
       <c r="E36" t="n">
-        <v>43.58206826501201</v>
+        <v>44.77024700337422</v>
       </c>
     </row>
     <row r="37">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>23.324</v>
+        <v>23.323</v>
       </c>
       <c r="D37" t="n">
-        <v>124.9406854345788</v>
+        <v>126.3604550257816</v>
       </c>
       <c r="E37" t="n">
-        <v>46.21358485797656</v>
+        <v>44.8243455017542</v>
       </c>
     </row>
     <row r="38">
@@ -1149,13 +1149,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>22.204</v>
+        <v>22.1415</v>
       </c>
       <c r="D38" t="n">
-        <v>134.4348550705834</v>
+        <v>130.1347557168877</v>
       </c>
       <c r="E38" t="n">
-        <v>45.45051947642427</v>
+        <v>47.11414247096366</v>
       </c>
     </row>
     <row r="39">
@@ -1168,13 +1168,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>22.754</v>
+        <v>22.5505</v>
       </c>
       <c r="D39" t="n">
-        <v>132.2172384215253</v>
+        <v>129.0661175481067</v>
       </c>
       <c r="E39" t="n">
-        <v>44.64194452668767</v>
+        <v>45.78900664905692</v>
       </c>
     </row>
     <row r="40">
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>22.72</v>
+        <v>22.464</v>
       </c>
       <c r="D40" t="n">
-        <v>138.6821556852359</v>
+        <v>134.6335222139292</v>
       </c>
       <c r="E40" t="n">
-        <v>49.25380499437141</v>
+        <v>49.83552858603414</v>
       </c>
     </row>
     <row r="41">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>26.656</v>
+        <v>26.6385</v>
       </c>
       <c r="D41" t="n">
-        <v>130.5195367130121</v>
+        <v>133.396214956227</v>
       </c>
       <c r="E41" t="n">
-        <v>47.29424058750922</v>
+        <v>48.46320696927112</v>
       </c>
     </row>
     <row r="42">
@@ -1225,13 +1225,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>24.976</v>
+        <v>24.6015</v>
       </c>
       <c r="D42" t="n">
-        <v>120.5361825850688</v>
+        <v>129.191358490465</v>
       </c>
       <c r="E42" t="n">
-        <v>44.03804526441966</v>
+        <v>46.55337013089864</v>
       </c>
     </row>
     <row r="43">
@@ -1244,13 +1244,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>27.052</v>
+        <v>26.8165</v>
       </c>
       <c r="D43" t="n">
-        <v>119.9082826025402</v>
+        <v>121.6731249455124</v>
       </c>
       <c r="E43" t="n">
-        <v>43.05311626870022</v>
+        <v>44.18476207511326</v>
       </c>
     </row>
     <row r="44">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>23.112</v>
+        <v>22.899</v>
       </c>
       <c r="D44" t="n">
-        <v>116.5260417813408</v>
+        <v>119.2781177080764</v>
       </c>
       <c r="E44" t="n">
-        <v>38.77389889229978</v>
+        <v>42.8871401217689</v>
       </c>
     </row>
     <row r="45">
@@ -1282,13 +1282,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>22.984</v>
+        <v>23.2125</v>
       </c>
       <c r="D45" t="n">
-        <v>127.2729799376577</v>
+        <v>128.0434234788816</v>
       </c>
       <c r="E45" t="n">
-        <v>44.15393273688987</v>
+        <v>46.40089162173252</v>
       </c>
     </row>
     <row r="46">
@@ -1301,13 +1301,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>23.34</v>
+        <v>23.4795</v>
       </c>
       <c r="D46" t="n">
-        <v>119.6376039281006</v>
+        <v>126.1102289239965</v>
       </c>
       <c r="E46" t="n">
-        <v>41.93142807657262</v>
+        <v>46.14500201258964</v>
       </c>
     </row>
     <row r="47">
@@ -1320,13 +1320,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>22.316</v>
+        <v>22.532</v>
       </c>
       <c r="D47" t="n">
-        <v>132.177259204971</v>
+        <v>134.0565881139028</v>
       </c>
       <c r="E47" t="n">
-        <v>45.87549198406867</v>
+        <v>47.53061620526413</v>
       </c>
     </row>
     <row r="48">
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>26.506</v>
+        <v>26.2045</v>
       </c>
       <c r="D48" t="n">
-        <v>127.5217251388222</v>
+        <v>125.5315356580243</v>
       </c>
       <c r="E48" t="n">
-        <v>42.98997366979824</v>
+        <v>44.55755860046629</v>
       </c>
     </row>
     <row r="49">
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>29.91</v>
+        <v>29.6425</v>
       </c>
       <c r="D49" t="n">
-        <v>121.9064795945774</v>
+        <v>126.2908872383238</v>
       </c>
       <c r="E49" t="n">
-        <v>43.70641989640244</v>
+        <v>46.23208511019565</v>
       </c>
     </row>
     <row r="50">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>32.648</v>
+        <v>33.1095</v>
       </c>
       <c r="D50" t="n">
-        <v>133.5058224535949</v>
+        <v>126.1132323262203</v>
       </c>
       <c r="E50" t="n">
-        <v>48.20054567562898</v>
+        <v>44.76343145826467</v>
       </c>
     </row>
     <row r="51">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>21.706</v>
+        <v>21.484</v>
       </c>
       <c r="D51" t="n">
-        <v>114.6537878924616</v>
+        <v>114.3335965651701</v>
       </c>
       <c r="E51" t="n">
-        <v>42.8086637270389</v>
+        <v>39.55057234676431</v>
       </c>
     </row>
     <row r="52">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>23.736</v>
+        <v>23.646</v>
       </c>
       <c r="D52" t="n">
-        <v>113.915865232685</v>
+        <v>116.2062083092643</v>
       </c>
       <c r="E52" t="n">
-        <v>37.3336886994392</v>
+        <v>41.7465599608885</v>
       </c>
     </row>
     <row r="53">
@@ -1434,13 +1434,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>21.886</v>
+        <v>22.1815</v>
       </c>
       <c r="D53" t="n">
-        <v>123.5874813162242</v>
+        <v>128.7370890919644</v>
       </c>
       <c r="E53" t="n">
-        <v>45.77269196362055</v>
+        <v>46.92319245661443</v>
       </c>
     </row>
     <row r="54">
@@ -1453,13 +1453,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>18.87</v>
+        <v>18.7615</v>
       </c>
       <c r="D54" t="n">
-        <v>123.7583084319284</v>
+        <v>126.0376630864794</v>
       </c>
       <c r="E54" t="n">
-        <v>44.88026060253294</v>
+        <v>45.89209745715554</v>
       </c>
     </row>
     <row r="55">
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>21.874</v>
+        <v>21.6735</v>
       </c>
       <c r="D55" t="n">
-        <v>118.482626780401</v>
+        <v>122.152138866516</v>
       </c>
       <c r="E55" t="n">
-        <v>42.76113856488308</v>
+        <v>44.00340486061831</v>
       </c>
     </row>
     <row r="56">
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>25.798</v>
+        <v>25.7205</v>
       </c>
       <c r="D56" t="n">
-        <v>114.2554695937353</v>
+        <v>111.6249916033445</v>
       </c>
       <c r="E56" t="n">
-        <v>41.1757284351212</v>
+        <v>40.70501987351035</v>
       </c>
     </row>
     <row r="57">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>30.022</v>
+        <v>29.803</v>
       </c>
       <c r="D57" t="n">
-        <v>128.2801016745072</v>
+        <v>128.3591970963964</v>
       </c>
       <c r="E57" t="n">
-        <v>45.60766194764994</v>
+        <v>46.01509999775661</v>
       </c>
     </row>
     <row r="58">
@@ -1529,13 +1529,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>26.15</v>
+        <v>26.2835</v>
       </c>
       <c r="D58" t="n">
-        <v>117.204019632182</v>
+        <v>125.3130275380653</v>
       </c>
       <c r="E58" t="n">
-        <v>45.37117510190832</v>
+        <v>44.90707597774068</v>
       </c>
     </row>
     <row r="59">
@@ -1548,13 +1548,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>11.364</v>
+        <v>11.5095</v>
       </c>
       <c r="D59" t="n">
-        <v>147.6418055221427</v>
+        <v>136.8833536088952</v>
       </c>
       <c r="E59" t="n">
-        <v>51.14939088259519</v>
+        <v>49.38251236422665</v>
       </c>
     </row>
     <row r="60">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>14.94</v>
+        <v>15.2815</v>
       </c>
       <c r="D60" t="n">
-        <v>133.4495344285442</v>
+        <v>132.9420533993506</v>
       </c>
       <c r="E60" t="n">
-        <v>48.58257465676358</v>
+        <v>48.04531579153702</v>
       </c>
     </row>
     <row r="61">
@@ -1586,13 +1586,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>19.534</v>
+        <v>19.402</v>
       </c>
       <c r="D61" t="n">
-        <v>129.0517471123365</v>
+        <v>131.0718066219809</v>
       </c>
       <c r="E61" t="n">
-        <v>44.6788956899977</v>
+        <v>46.8159666199177</v>
       </c>
     </row>
     <row r="62">
@@ -1605,13 +1605,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>12.152</v>
+        <v>12.2335</v>
       </c>
       <c r="D62" t="n">
-        <v>132.1299596344488</v>
+        <v>124.3726420902647</v>
       </c>
       <c r="E62" t="n">
-        <v>53.90109610891341</v>
+        <v>43.64479231070897</v>
       </c>
     </row>
     <row r="63">
@@ -1624,13 +1624,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>21.122</v>
+        <v>20.902</v>
       </c>
       <c r="D63" t="n">
-        <v>129.8032620675157</v>
+        <v>127.4897311840068</v>
       </c>
       <c r="E63" t="n">
-        <v>46.03038497268332</v>
+        <v>44.37117485160989</v>
       </c>
     </row>
     <row r="64">
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>33.208</v>
+        <v>33.549</v>
       </c>
       <c r="D64" t="n">
-        <v>131.1208823703029</v>
+        <v>126.4072039304064</v>
       </c>
       <c r="E64" t="n">
-        <v>46.00798492250472</v>
+        <v>45.0497495562193</v>
       </c>
     </row>
     <row r="65">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>11.872</v>
+        <v>11.9815</v>
       </c>
       <c r="D65" t="n">
-        <v>140.4685333810384</v>
+        <v>129.3275040152932</v>
       </c>
       <c r="E65" t="n">
-        <v>51.22138377319423</v>
+        <v>44.36728146070573</v>
       </c>
     </row>
     <row r="66">
@@ -1681,13 +1681,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>12.216</v>
+        <v>12.113</v>
       </c>
       <c r="D66" t="n">
-        <v>135.3329723338236</v>
+        <v>127.3506395541122</v>
       </c>
       <c r="E66" t="n">
-        <v>49.90493308720861</v>
+        <v>44.57527311441704</v>
       </c>
     </row>
     <row r="67">
@@ -1700,13 +1700,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>12.166</v>
+        <v>12.0485</v>
       </c>
       <c r="D67" t="n">
-        <v>128.2681212320531</v>
+        <v>127.1232406292832</v>
       </c>
       <c r="E67" t="n">
-        <v>46.17648343228839</v>
+        <v>45.77726490616502</v>
       </c>
     </row>
     <row r="68">
@@ -1719,13 +1719,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>13.382</v>
+        <v>13.2595</v>
       </c>
       <c r="D68" t="n">
-        <v>137.4761838340389</v>
+        <v>133.6515127266338</v>
       </c>
       <c r="E68" t="n">
-        <v>45.16749636074578</v>
+        <v>48.63238424062906</v>
       </c>
     </row>
     <row r="69">
@@ -1738,13 +1738,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>33.632</v>
+        <v>33.618</v>
       </c>
       <c r="D69" t="n">
-        <v>133.2558092029362</v>
+        <v>136.5540751458354</v>
       </c>
       <c r="E69" t="n">
-        <v>45.88115541574665</v>
+        <v>48.79276728763364</v>
       </c>
     </row>
   </sheetData>
